--- a/RetailerPerformanceAnalysis.xlsx
+++ b/RetailerPerformanceAnalysis.xlsx
@@ -1,89 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\Andrew_Weilbacher_Online_Retailer_Performance_Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B2DE1-CDE7-4EB3-8D63-C7E5A27A1650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MonthDeviceAggregation" sheetId="1" r:id="rId1"/>
-    <sheet name="MonthOverMonthComparison" sheetId="2" r:id="rId2"/>
+    <sheet name="MonthDeviceAggregation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MonthOverMonthComparison" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>dim_deviceCategory</t>
-  </si>
-  <si>
-    <t>Sessions</t>
-  </si>
-  <si>
-    <t>Transactions</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>ECR</t>
-  </si>
-  <si>
-    <t>desktop</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>sessions</t>
-  </si>
-  <si>
-    <t>transactions</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>sessions_abs_diff</t>
-  </si>
-  <si>
-    <t>sessions_rel_diff</t>
-  </si>
-  <si>
-    <t>transactions_abs_diff</t>
-  </si>
-  <si>
-    <t>transactions_rel_diff</t>
-  </si>
-  <si>
-    <t>quantity_abs_diff</t>
-  </si>
-  <si>
-    <t>quantity_rel_diff</t>
-  </si>
-  <si>
-    <t>addsToCart</t>
-  </si>
-  <si>
-    <t>conversion_rate</t>
-  </si>
-  <si>
-    <t>conversion_rate_diff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim_deviceCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addsToCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessions_abs_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sessions_rel_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactions_abs_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactions_rel_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity_abs_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity_rel_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addsToCart_abs_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addsToCart_rel_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conversion_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conversion_rate_diff</t>
   </si>
 </sst>
 </file>
@@ -91,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,21 +133,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,14 +420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,758 +447,741 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>41091</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>335429</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>10701</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>18547</v>
       </c>
-      <c r="F2">
-        <v>3.1902429426197497E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="F2" t="n">
+        <v>0.0319024294261975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>41091</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>274443</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2576</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>4557</v>
       </c>
-      <c r="F3">
-        <v>9.3862842193096607E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="F3" t="n">
+        <v>0.00938628421930966</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>41091</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>158717</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>4884</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>8700</v>
       </c>
-      <c r="F4">
-        <v>3.0771750978156098E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="F4" t="n">
+        <v>0.0307717509781561</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>41122</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>392079</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>12912</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>23316</v>
       </c>
-      <c r="F5">
-        <v>3.29321386761341E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="F5" t="n">
+        <v>0.0329321386761341</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>41122</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>275556</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3165</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>5572</v>
       </c>
-      <c r="F6">
-        <v>1.1485868571179701E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="F6" t="n">
+        <v>0.0114858685711797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>41122</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>154858</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3202</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>5760</v>
       </c>
-      <c r="F7">
-        <v>2.0677007322837698E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="F7" t="n">
+        <v>0.0206770073228377</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>41153</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>272771</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>8898</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>16507</v>
       </c>
-      <c r="F8">
-        <v>3.2620769803241502E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="F8" t="n">
+        <v>0.0326207698032415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>41153</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>220689</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>2381</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>4050</v>
       </c>
-      <c r="F9">
-        <v>1.0788938279660499E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="F9" t="n">
+        <v>0.0107889382796605</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>41153</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>169193</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>4379</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>7869</v>
       </c>
-      <c r="F10">
-        <v>2.5881685412517098E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="F10" t="n">
+        <v>0.0258816854125171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>41183</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>302682</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>9373</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>17675</v>
       </c>
-      <c r="F11">
-        <v>3.0966492886924199E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="F11" t="n">
+        <v>0.0309664928869242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>41183</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>238849</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>2418</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>4446</v>
       </c>
-      <c r="F12">
-        <v>1.0123550862678901E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="F12" t="n">
+        <v>0.0101235508626789</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>41183</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>107108</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>2484</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>4505</v>
       </c>
-      <c r="F13">
-        <v>2.3191544982634399E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="F13" t="n">
+        <v>0.0231915449826344</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>41214</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>320717</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>10350</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>18778</v>
       </c>
-      <c r="F14">
-        <v>3.2271441800715298E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="F14" t="n">
+        <v>0.0322714418007153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>41214</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>178828</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1994</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>3407</v>
       </c>
-      <c r="F15">
-        <v>1.1150379135258501E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="F15" t="n">
+        <v>0.0111503791352585</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>41214</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>138235</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>3183</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>5947</v>
       </c>
-      <c r="F16">
-        <v>2.30260064383116E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="F16" t="n">
+        <v>0.0230260064383116</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>41244</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>309718</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>11613</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>19947</v>
       </c>
-      <c r="F17">
-        <v>3.7495399040417397E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="F17" t="n">
+        <v>0.0374953990404174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>41244</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>234481</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>3158</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>5672</v>
       </c>
-      <c r="F18">
-        <v>1.3468042186787E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="F18" t="n">
+        <v>0.013468042186787</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>41244</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>245435</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>5158</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>9133</v>
       </c>
-      <c r="F19">
-        <v>2.1015747550267899E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="F19" t="n">
+        <v>0.0210157475502679</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>41275</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>393723</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>13793</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>25424</v>
       </c>
-      <c r="F20">
-        <v>3.5032243480822803E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="F20" t="n">
+        <v>0.0350322434808228</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>41275</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>341668</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>4360</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>7257</v>
       </c>
-      <c r="F21">
-        <v>1.2760925811021199E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="F21" t="n">
+        <v>0.0127609258110212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>41275</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>164601</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>3407</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>6165</v>
       </c>
-      <c r="F22">
-        <v>2.0698537675955801E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="F22" t="n">
+        <v>0.0206985376759558</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>41306</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>247632</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>9699</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>18437</v>
       </c>
-      <c r="F23">
-        <v>3.91669897266912E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="F23" t="n">
+        <v>0.0391669897266912</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>41306</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>194996</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>2071</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>3915</v>
       </c>
-      <c r="F24">
-        <v>1.0620730681655E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="F24" t="n">
+        <v>0.010620730681655</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>41306</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>107599</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>2396</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>4696</v>
       </c>
-      <c r="F25">
-        <v>2.2267864942982701E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="F25" t="n">
+        <v>0.0222678649429827</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>41334</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>287837</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>9679</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>17362</v>
       </c>
-      <c r="F26">
-        <v>3.3626670650402798E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="F26" t="n">
+        <v>0.0336266706504028</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>41334</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>304832</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>3644</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>6455</v>
       </c>
-      <c r="F27">
-        <v>1.19541255511232E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="F27" t="n">
+        <v>0.0119541255511232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>41334</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>196151</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>4481</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>8265</v>
       </c>
-      <c r="F28">
-        <v>2.2844645196812698E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="F28" t="n">
+        <v>0.0228446451968127</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>41365</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>567510</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>18868</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>34200</v>
       </c>
-      <c r="F29">
-        <v>3.3246991242445102E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="F29" t="n">
+        <v>0.0332469912424451</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>41365</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>429864</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>4280</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>7752</v>
       </c>
-      <c r="F30">
-        <v>9.9566374481231297E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="F30" t="n">
+        <v>0.00995663744812313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>41365</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>299239</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>7221</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>12994</v>
       </c>
-      <c r="F31">
-        <v>2.4131212843245702E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="F31" t="n">
+        <v>0.0241312128432457</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>41395</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>526330</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>18176</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>33208</v>
       </c>
-      <c r="F32">
-        <v>3.4533467596374899E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="F32" t="n">
+        <v>0.0345334675963749</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>41395</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>409796</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>5413</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>9790</v>
       </c>
-      <c r="F33">
-        <v>1.3209011312946E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="F33" t="n">
+        <v>0.013209011312946</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>41395</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>228513</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>4800</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>8631</v>
       </c>
-      <c r="F34">
-        <v>2.1005369497577801E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="F34" t="n">
+        <v>0.0210053694975778</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>41426</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>554940</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>19370</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>35146</v>
       </c>
-      <c r="F35">
-        <v>3.49046743792122E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="F35" t="n">
+        <v>0.0349046743792122</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>41426</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>526481</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>7412</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>13017</v>
       </c>
-      <c r="F36">
-        <v>1.40783807962681E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="F36" t="n">
+        <v>0.0140783807962681</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>41426</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>307413</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>7756</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>13728</v>
       </c>
-      <c r="F37">
-        <v>2.5229902443943499E-2</v>
+      <c r="F37" t="n">
+        <v>0.0252299024439435</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,70 +1221,109 @@
       <c r="M1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>41395</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1164639</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>28389</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>51629</v>
       </c>
-      <c r="K2">
+      <c r="E2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
         <v>136720</v>
       </c>
-      <c r="L2">
-        <v>2.43757937008807E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2" t="n">
+        <v>0.0243757937008807</v>
+      </c>
+      <c r="Q2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>41426</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1388834</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>34538</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>61891</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>107970</v>
+      </c>
+      <c r="H3" t="n">
         <v>224195</v>
       </c>
-      <c r="F3">
+      <c r="I3" t="n">
         <v>0.192501710830566</v>
       </c>
-      <c r="G3">
+      <c r="J3" t="n">
         <v>6149</v>
       </c>
-      <c r="H3">
+      <c r="K3" t="n">
         <v>0.216597978090105</v>
       </c>
-      <c r="I3">
+      <c r="L3" t="n">
         <v>10262</v>
       </c>
-      <c r="J3">
+      <c r="M3" t="n">
         <v>0.198764260396289</v>
       </c>
-      <c r="K3">
-        <v>107970</v>
-      </c>
-      <c r="L3">
-        <v>2.4868342796907299E-2</v>
-      </c>
-      <c r="M3">
-        <v>4.9254909602663305E-4</v>
+      <c r="N3" t="n">
+        <v>-28750</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.210283791691047</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0248683427969073</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.000492549096026633</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/RetailerPerformanceAnalysis.xlsx
+++ b/RetailerPerformanceAnalysis.xlsx
@@ -1,93 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\Andrew_Weilbacher_Online_Retailer_Performance_Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D17A673-CF4E-455B-BAE5-CBE0018B8A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MonthDeviceAggregation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MonthOverMonthComparison" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MonthDeviceAggregation" sheetId="1" r:id="rId1"/>
+    <sheet name="MonthOverMonthComparison" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dim_deviceCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dim_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dim_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addsToCart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sessions_abs_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sessions_rel_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transactions_abs_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transactions_rel_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity_abs_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity_rel_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addsToCart_abs_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addsToCart_rel_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conversion_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conversion_rate_diff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>dim_deviceCategory</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>transactions</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>dim_year</t>
+  </si>
+  <si>
+    <t>dim_month</t>
+  </si>
+  <si>
+    <t>addsToCart</t>
+  </si>
+  <si>
+    <t>sessions_abs_diff</t>
+  </si>
+  <si>
+    <t>sessions_rel_diff</t>
+  </si>
+  <si>
+    <t>transactions_abs_diff</t>
+  </si>
+  <si>
+    <t>transactions_rel_diff</t>
+  </si>
+  <si>
+    <t>quantity_abs_diff</t>
+  </si>
+  <si>
+    <t>quantity_rel_diff</t>
+  </si>
+  <si>
+    <t>addsToCart_abs_diff</t>
+  </si>
+  <si>
+    <t>addsToCart_rel_diff</t>
+  </si>
+  <si>
+    <t>conversion_rate</t>
+  </si>
+  <si>
+    <t>conversion_rate_diff</t>
   </si>
 </sst>
 </file>
@@ -95,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,12 +141,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,14 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,741 +464,743 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>41091</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>335429</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10701</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>18547</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.0319024294261975</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="F2">
+        <v>3.1902429426197497E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>41091</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>274443</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2576</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4557</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.00938628421930966</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="F3">
+        <v>9.3862842193096607E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>41091</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>158717</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4884</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>8700</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.0307717509781561</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="F4">
+        <v>3.0771750978156098E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>41122</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>392079</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>12912</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>23316</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0329321386761341</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F5">
+        <v>3.29321386761341E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>41122</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>275556</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3165</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>5572</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0114858685711797</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="F6">
+        <v>1.1485868571179701E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>41122</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>154858</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3202</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5760</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.0206770073228377</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F7">
+        <v>2.0677007322837698E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>41153</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>272771</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>8898</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>16507</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.0326207698032415</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="F8">
+        <v>3.2620769803241502E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>41153</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>220689</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2381</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4050</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.0107889382796605</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="F9">
+        <v>1.0788938279660499E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>41153</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>169193</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4379</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>7869</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.0258816854125171</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="F10">
+        <v>2.5881685412517098E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>41183</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>302682</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>9373</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>17675</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.0309664928869242</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="F11">
+        <v>3.0966492886924199E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>41183</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>238849</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2418</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>4446</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.0101235508626789</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="F12">
+        <v>1.0123550862678901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>41183</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>107108</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2484</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>4505</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.0231915449826344</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="F13">
+        <v>2.3191544982634399E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>41214</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>320717</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>10350</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>18778</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.0322714418007153</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="F14">
+        <v>3.2271441800715298E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>41214</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>178828</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1994</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>3407</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.0111503791352585</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="F15">
+        <v>1.1150379135258501E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>41214</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>138235</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3183</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5947</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.0230260064383116</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="F16">
+        <v>2.30260064383116E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>41244</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>309718</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>11613</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>19947</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.0374953990404174</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="F17">
+        <v>3.7495399040417397E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>41244</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>234481</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>3158</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>5672</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.013468042186787</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="F18">
+        <v>1.3468042186787E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>41244</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>245435</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5158</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>9133</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.0210157475502679</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="F19">
+        <v>2.1015747550267899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>41275</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>393723</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>13793</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>25424</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.0350322434808228</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="F20">
+        <v>3.5032243480822803E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>41275</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>341668</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>4360</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>7257</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.0127609258110212</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="F21">
+        <v>1.2760925811021199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>41275</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>164601</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>3407</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>6165</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.0206985376759558</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="F22">
+        <v>2.0698537675955801E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>41306</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>247632</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>9699</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>18437</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.0391669897266912</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="F23">
+        <v>3.91669897266912E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>41306</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>194996</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2071</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3915</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.010620730681655</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="F24">
+        <v>1.0620730681655E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>41306</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>107599</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2396</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>4696</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.0222678649429827</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="F25">
+        <v>2.2267864942982701E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>41334</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>287837</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>9679</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>17362</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.0336266706504028</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="F26">
+        <v>3.3626670650402798E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>41334</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>304832</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>3644</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>6455</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.0119541255511232</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="F27">
+        <v>1.19541255511232E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>41334</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>196151</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>4481</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>8265</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.0228446451968127</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="F28">
+        <v>2.2844645196812698E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>41365</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>567510</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>18868</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>34200</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.0332469912424451</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="F29">
+        <v>3.3246991242445102E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>41365</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>429864</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>4280</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>7752</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.00995663744812313</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="F30">
+        <v>9.9566374481231297E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>41365</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>299239</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>7221</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>12994</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0241312128432457</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="F31">
+        <v>2.4131212843245702E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>41395</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>526330</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>18176</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>33208</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.0345334675963749</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="F32">
+        <v>3.4533467596374899E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>41395</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>409796</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>5413</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>9790</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.013209011312946</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="F33">
+        <v>1.3209011312946E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>41395</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>228513</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>4800</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>8631</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.0210053694975778</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="F34">
+        <v>2.1005369497577801E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>41426</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>554940</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>19370</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>35146</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.0349046743792122</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="F35">
+        <v>3.49046743792122E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>41426</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>526481</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>7412</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>13017</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.0140783807962681</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="F36">
+        <v>1.40783807962681E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>41426</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>307413</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>7756</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>13728</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.0252299024439435</v>
+      <c r="F37">
+        <v>2.5229902443943499E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,96 +1253,87 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>41395</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1164639</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>28389</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>51629</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2013</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>136720</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
-        <v>0.0243757937008807</v>
-      </c>
-      <c r="Q2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="P2">
+        <v>2.43757937008807E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>41426</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1388834</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>34538</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>61891</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2013</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>107970</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>224195</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.192501710830566</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>6149</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.216597978090105</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>10262</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>0.198764260396289</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>-28750</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>-0.210283791691047</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.0248683427969073</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.000492549096026633</v>
+      <c r="P3">
+        <v>2.4868342796907299E-2</v>
+      </c>
+      <c r="Q3">
+        <v>4.9254909602663305E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>